--- a/day_data.xlsx
+++ b/day_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\AppData\Local\Programs\Python\Python38-32\GITHUB\Smart-Grids-group-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{791B857F-04B6-4B10-BC4F-3416EF9751C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA0810-AF62-4591-8994-FC0A84EF5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normalisedConsumption" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,11 +871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="E2" sqref="E2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.69319943489614999</v>
+        <v>0.74184335344219499</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.64987123555683302</v>
+        <v>0.69910893998062895</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.61638285287736105</v>
+        <v>0.66521175214108597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.60369239097900596</v>
+        <v>0.65216376659028397</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.60146446963665801</v>
+        <v>0.64511095935346396</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.61206410405488099</v>
+        <v>0.65371835032927095</v>
       </c>
       <c r="C7">
-        <v>1.891E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>1.891E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.67115734627352397</v>
+        <v>0.696800520862071</v>
       </c>
       <c r="C8">
-        <v>9.987E-2</v>
+        <v>8.3150000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>9.987E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.733849086731442</v>
+        <v>0.75299294933528904</v>
       </c>
       <c r="C9">
-        <v>0.23656000000000002</v>
+        <v>0.27826000000000001</v>
       </c>
       <c r="D9">
-        <v>0.23656000000000002</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.79420449957804695</v>
+        <v>0.81319813491132298</v>
       </c>
       <c r="C10">
-        <v>0.33950999999999998</v>
+        <v>0.47961000000000004</v>
       </c>
       <c r="D10">
-        <v>0.33950999999999998</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.84146690599520801</v>
+        <v>0.86911679303537503</v>
       </c>
       <c r="C11">
-        <v>0.56779999999999997</v>
+        <v>0.64805999999999997</v>
       </c>
       <c r="D11">
-        <v>0.56779999999999997</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.87855654159070695</v>
+        <v>0.90369221568139502</v>
       </c>
       <c r="C12">
-        <v>0.75248000000000004</v>
+        <v>0.76993</v>
       </c>
       <c r="D12">
-        <v>0.75248000000000004</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,13 +1053,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.89579820250942099</v>
+        <v>0.91808220183594402</v>
       </c>
       <c r="C13">
-        <v>0.80177999999999994</v>
+        <v>0.83309</v>
       </c>
       <c r="D13">
-        <v>0.80177999999999994</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.92701431076832896</v>
+        <v>0.93924668940026201</v>
       </c>
       <c r="C14">
-        <v>0.82094000000000011</v>
+        <v>0.84025000000000005</v>
       </c>
       <c r="D14">
-        <v>0.82094000000000011</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.94476992758900802</v>
+        <v>0.94932964106478401</v>
       </c>
       <c r="C15">
-        <v>0.7785700000000001</v>
+        <v>0.79170000000000007</v>
       </c>
       <c r="D15">
-        <v>0.7785700000000001</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.93621540414683402</v>
+        <v>0.92978392955529099</v>
       </c>
       <c r="C16">
-        <v>0.66676000000000002</v>
+        <v>0.68528999999999995</v>
       </c>
       <c r="D16">
-        <v>0.66676000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.92681641924243496</v>
+        <v>0.90963753156365601</v>
       </c>
       <c r="C17">
-        <v>0.52593000000000001</v>
+        <v>0.53488000000000002</v>
       </c>
       <c r="D17">
-        <v>0.52593000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.92469787804467196</v>
+        <v>0.90548461984667705</v>
       </c>
       <c r="C18">
-        <v>0.32451000000000002</v>
+        <v>0.33491000000000004</v>
       </c>
       <c r="D18">
-        <v>0.32451000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,13 +1137,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.92210391859445995</v>
+        <v>0.903493266804829</v>
       </c>
       <c r="C19">
-        <v>0.12719</v>
+        <v>0.12425</v>
       </c>
       <c r="D19">
-        <v>0.12719</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,13 +1151,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.90198106056780103</v>
+        <v>0.88605727596248696</v>
       </c>
       <c r="C20">
-        <v>4.3869999999999999E-2</v>
+        <v>3.8609999999999998E-2</v>
       </c>
       <c r="D20">
-        <v>4.3869999999999999E-2</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,13 +1165,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.88344164082348497</v>
+        <v>0.87104631888789097</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1179,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.86459834406085101</v>
+        <v>0.84917763577558203</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1193,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.85084549516163199</v>
+        <v>0.82627007780236605</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.82145367853829299</v>
+        <v>0.80277850053261202</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,13 +1221,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.76225077792488805</v>
+        <v>0.75405035565798495</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.371</v>
       </c>
     </row>
   </sheetData>
